--- a/config_11.24/banner_style_ui.xlsx
+++ b/config_11.24/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="192">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -888,6 +888,14 @@
   </si>
   <si>
     <t>actp_own_task_p_029_hlqjd_hammer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","panel"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1554,11 +1562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3682,7 +3690,7 @@
         <v>139</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>22</v>
@@ -4166,6 +4174,35 @@
       </c>
       <c r="L85">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+      <c r="H86" t="s">
+        <v>191</v>
+      </c>
+      <c r="J86" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86">
+        <v>1606176000</v>
+      </c>
+      <c r="L86">
+        <v>1606751999</v>
       </c>
     </row>
   </sheetData>
@@ -4176,19 +4213,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4209,17 +4244,19 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4231,13 +4268,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4249,13 +4286,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
